--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-856225.8701301948</v>
+        <v>-858865.2174482166</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>293.5817856193918</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>250.3212603395562</v>
       </c>
       <c r="F2" t="n">
-        <v>266.8449216366888</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>245.2582175056427</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>75.36340072465751</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,16 +874,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>155.263774915803</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>285.2911189584649</v>
       </c>
       <c r="G5" t="n">
-        <v>394.114190025778</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>38.01931118847222</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>88.27056118281195</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>182.7069180385168</v>
       </c>
       <c r="F8" t="n">
-        <v>135.612442182101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>46.59173701897205</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>16.54792618712843</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>134.9529137347804</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.0016338997254</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.8784673763412</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.5819130177791</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766842</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.36569740310337</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>274.4742420473661</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541852</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652626</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1323.273454230226</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C2" t="n">
-        <v>954.3109372898145</v>
+        <v>1489.052898158816</v>
       </c>
       <c r="D2" t="n">
-        <v>954.3109372898145</v>
+        <v>1130.787199552066</v>
       </c>
       <c r="E2" t="n">
-        <v>568.5226846915702</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>298.982359806026</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1709.873294294348</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>870.329241545892</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.9218676324038</v>
+        <v>644.1412202705739</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>475.205037342667</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.321472877874</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1363.692725037735</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1140.71424423247</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>851.5959067363079</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V4" t="n">
-        <v>596.9114185304211</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="W4" t="n">
-        <v>596.9114185304211</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="X4" t="n">
-        <v>368.9218676324038</v>
+        <v>864.933799414104</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.9218676324038</v>
+        <v>644.1412202705739</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.556048344953</v>
+        <v>2172.199996424343</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.593531404541</v>
+        <v>1803.237479483932</v>
       </c>
       <c r="D5" t="n">
-        <v>860.3278327977905</v>
+        <v>1444.971780877181</v>
       </c>
       <c r="E5" t="n">
-        <v>860.3278327977905</v>
+        <v>1059.183528278937</v>
       </c>
       <c r="F5" t="n">
-        <v>449.3419280081829</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.556048344953</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4650,19 +4650,19 @@
         <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>808.4114230577909</v>
+        <v>415.2002991794581</v>
       </c>
       <c r="C7" t="n">
-        <v>770.0080784229705</v>
+        <v>246.2641162515511</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>246.2641162515511</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>246.2641162515511</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>246.2641162515511</v>
       </c>
       <c r="G7" t="n">
         <v>157.1019332386098</v>
@@ -4720,55 +4720,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880306</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>990.0598878880306</v>
+        <v>824.8383149077151</v>
       </c>
       <c r="X7" t="n">
-        <v>990.0598878880306</v>
+        <v>596.8487640096978</v>
       </c>
       <c r="Y7" t="n">
-        <v>990.0598878880306</v>
+        <v>596.8487640096978</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116518</v>
+        <v>1774.969111598457</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176106</v>
+        <v>1774.969111598457</v>
       </c>
       <c r="D8" t="n">
-        <v>958.147330569356</v>
+        <v>1416.703412991707</v>
       </c>
       <c r="E8" t="n">
-        <v>958.147330569356</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.97538618064</v>
+        <v>2161.568951662579</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.920382101508</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1820.749013889325</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X10" t="n">
-        <v>651.920382101508</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y10" t="n">
-        <v>651.920382101508</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>835.5837926935603</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>666.6476097656534</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797781</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1466.014387565348</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1238.02483666733</v>
       </c>
       <c r="Y13" t="n">
-        <v>931.4710609784063</v>
+        <v>1017.2322575238</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>365.940507157679</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1156.454656510065</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>928.4651056120481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.672526468518</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2312.991837396757</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2312.991837396757</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>2023.916610740955</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535068</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7172,7 +7172,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,19 +7254,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
         <v>782.551295565682</v>
@@ -7321,22 +7321,22 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,22 +7351,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,16 +7819,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>154.0169020165193</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240.4465442417443</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.9393975111056</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>131.6091097327055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>166.2894852673113</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -22598,7 +22598,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>13.66255928343196</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.58301945237071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659004</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.00274033431572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>35.40333084624704</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>12.04875628922491</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2.435829443713351e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-4.334310688136611e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="12">
@@ -26323,7 +26323,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147516</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
@@ -26332,7 +26332,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="J2" t="n">
         <v>221965.3149147517</v>
@@ -26350,7 +26350,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182252</v>
+        <v>67721.68800182255</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53312.72503984557</v>
+        <v>53312.72503984551</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
@@ -26424,37 +26424,37 @@
         <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744304</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="K4" t="n">
-        <v>8727.256391744304</v>
-      </c>
       <c r="L4" t="n">
-        <v>16718.11565483783</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483778</v>
       </c>
       <c r="N4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483775</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1074824.926071856</v>
+        <v>-1075185.009087573</v>
       </c>
       <c r="C6" t="n">
-        <v>-2673.42270414994</v>
+        <v>-2673.422704149911</v>
       </c>
       <c r="D6" t="n">
-        <v>-162688.8854521488</v>
+        <v>-162688.8854521489</v>
       </c>
       <c r="E6" t="n">
-        <v>-213296.9331082548</v>
+        <v>-213331.6710336911</v>
       </c>
       <c r="F6" t="n">
-        <v>112115.5286991003</v>
+        <v>112080.7907736646</v>
       </c>
       <c r="G6" t="n">
-        <v>112115.5286991003</v>
+        <v>112080.790773665</v>
       </c>
       <c r="H6" t="n">
-        <v>112115.5286991002</v>
+        <v>112080.7907736646</v>
       </c>
       <c r="I6" t="n">
-        <v>112115.5286991003</v>
+        <v>112080.7907736647</v>
       </c>
       <c r="J6" t="n">
-        <v>-55489.64911088227</v>
+        <v>-55524.3870363179</v>
       </c>
       <c r="K6" t="n">
-        <v>112115.5286991003</v>
+        <v>112080.7907736646</v>
       </c>
       <c r="L6" t="n">
-        <v>38182.56720210232</v>
+        <v>38182.56720210239</v>
       </c>
       <c r="M6" t="n">
-        <v>20849.22726841309</v>
+        <v>20849.227268413</v>
       </c>
       <c r="N6" t="n">
+        <v>105904.2552039251</v>
+      </c>
+      <c r="O6" t="n">
         <v>105904.255203925</v>
-      </c>
-      <c r="O6" t="n">
-        <v>105904.2552039249</v>
       </c>
       <c r="P6" t="n">
         <v>105904.255203925</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>71.69110615161577</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>140.0311241050227</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>26.19417169491611</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>70.44588047323415</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>121.5849267832465</v>
       </c>
       <c r="G5" t="n">
-        <v>17.433512747176</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27670,10 +27670,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>129.2275099101556</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>78.03603886199224</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>199.223452033745</v>
       </c>
       <c r="F8" t="n">
-        <v>271.2636035596105</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>120.6550840796558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>173.2210991443135</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>240.446970176038</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>626.4629682828348</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>287.9685048518523</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33758,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,7 +33974,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>308.1572428165614</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>451.6972626543696</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>490.1260733652765</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489557</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961638</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191349</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>483.8667238383904</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>150.1270658774933</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37622,7 +37622,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>165.5609983721169</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
